--- a/src/test/resources/org/sitoolkit/core/infra/repository/excel/ExcelRepositoryReadTestData.xlsx
+++ b/src/test/resources/org/sitoolkit/core/infra/repository/excel/ExcelRepositoryReadTestData.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\netbeans-workspace\workspace_sitgithub\sit-core\src\test\resources\org\sitoolkit\core\infra\repository\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="8505"/>
+    <workbookView xWindow="600" yWindow="80" windowWidth="19400" windowHeight="8510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -45,6 +50,16 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字+数式</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スウシキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -91,9 +106,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -105,12 +123,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -152,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,26 +417,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -426,8 +453,12 @@
         <f>ROW()*100</f>
         <v>200</v>
       </c>
+      <c r="D2" t="str">
+        <f>B2&amp;C2</f>
+        <v>a200</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -438,8 +469,12 @@
         <f>ROW()*100</f>
         <v>300</v>
       </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3&amp;C3</f>
+        <v>b300</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -449,11 +484,16 @@
       <c r="C4">
         <f>ROW()*100</f>
         <v>400</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>c400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -463,7 +503,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -476,7 +516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
